--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/46.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/46.xlsx
@@ -479,13 +479,13 @@
         <v>-0.09925151518581013</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.55720061284943</v>
+        <v>-1.558974532399136</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01014545438650381</v>
+        <v>0.006078188977062832</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1347304135762541</v>
+        <v>-0.1573364761963746</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09771280664456211</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.561537035528613</v>
+        <v>-1.571558815273935</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02020658460985781</v>
+        <v>0.01572850020975735</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09546650659540844</v>
+        <v>-0.1219808586937185</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1076352017186384</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.637617249756682</v>
+        <v>-1.638936277780332</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0399949247225296</v>
+        <v>-0.04271010770677329</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1024740397234391</v>
+        <v>-0.1291473677530006</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1253646302623914</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.779455260815329</v>
+        <v>-1.772922294452371</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09510133415926668</v>
+        <v>-0.08648200545102411</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1076446925369119</v>
+        <v>-0.1358164867699516</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1425754007794919</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.836171891813157</v>
+        <v>-1.803862001310218</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1250785283244383</v>
+        <v>-0.1071724868005217</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1062564076719247</v>
+        <v>-0.1329155695293944</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1527036020503972</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.658716976077718</v>
+        <v>-1.627415244821971</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1333263885200539</v>
+        <v>-0.09446700445338251</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1056740205970434</v>
+        <v>-0.1258497976938756</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1538138780301529</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328845853778929</v>
+        <v>-1.321830450555292</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.145293655899303</v>
+        <v>-0.1080098649730536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06142362103991716</v>
+        <v>-0.08838971662604055</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1470809601314952</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8142250241270332</v>
+        <v>-0.8356781177408009</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08664098138227548</v>
+        <v>-0.03712391384527715</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07026488644426312</v>
+        <v>-0.08993382938403652</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1330169494600527</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2729245703690906</v>
+        <v>-0.3191377717704788</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09452524316087063</v>
+        <v>-0.02967880340152489</v>
       </c>
       <c r="G10" t="n">
-        <v>0.006219850697979893</v>
+        <v>-0.02324106519540508</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.110123119258565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3058705928773557</v>
+        <v>0.2350255662467331</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1202274013925896</v>
+        <v>-0.06548144233463034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08035457729212099</v>
+        <v>0.05190575569373235</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07644082635924086</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9647298127478828</v>
+        <v>0.8718217600939885</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2013004042734241</v>
+        <v>-0.1189744821720342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1460793197211525</v>
+        <v>0.1293648106720605</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03026015595202178</v>
       </c>
       <c r="E13" t="n">
-        <v>1.652516356029674</v>
+        <v>1.52904085204012</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3620738653613189</v>
+        <v>-0.2704407681956781</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2513764768788046</v>
+        <v>0.2317390143214572</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.02858390426087974</v>
       </c>
       <c r="E14" t="n">
-        <v>2.317633875926493</v>
+        <v>2.184591483717673</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.603295443738892</v>
+        <v>-0.507489621882683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.36050164853946</v>
+        <v>0.3418164675504995</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.099380691408108</v>
       </c>
       <c r="E15" t="n">
-        <v>3.023121838246431</v>
+        <v>2.874473046449916</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8997918515991812</v>
+        <v>-0.7986123284628517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5034383249447755</v>
+        <v>0.4798028538193244</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1799143819350262</v>
       </c>
       <c r="E16" t="n">
-        <v>3.70138084378699</v>
+        <v>3.546439123543514</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.135712920585774</v>
+        <v>-1.034993798042425</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6646713996160901</v>
+        <v>0.6420070982884815</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2647805302417583</v>
       </c>
       <c r="E17" t="n">
-        <v>4.365972641297294</v>
+        <v>4.198188499043125</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.428362425713604</v>
+        <v>-1.310445570250924</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8361277284802527</v>
+        <v>0.8140615544187384</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3491741362977948</v>
       </c>
       <c r="E18" t="n">
-        <v>5.033397673225939</v>
+        <v>4.840246638812889</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.640316692549713</v>
+        <v>-1.527657060952176</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9943308163430635</v>
+        <v>0.9717341978376709</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4307495475857873</v>
       </c>
       <c r="E19" t="n">
-        <v>5.51595573337694</v>
+        <v>5.327737674890046</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.870602773082049</v>
+        <v>-1.744262554291728</v>
       </c>
       <c r="G19" t="n">
-        <v>1.159820038718375</v>
+        <v>1.138802161391647</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5075677821554641</v>
       </c>
       <c r="E20" t="n">
-        <v>5.947449465194704</v>
+        <v>5.742027377711993</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.020776002397545</v>
+        <v>-1.894334259373899</v>
       </c>
       <c r="G20" t="n">
-        <v>1.287066892522565</v>
+        <v>1.266108827922447</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5806461112208517</v>
       </c>
       <c r="E21" t="n">
-        <v>6.238441528187805</v>
+        <v>6.044320897996034</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.219648596316522</v>
+        <v>-2.097652670300991</v>
       </c>
       <c r="G21" t="n">
-        <v>1.402431475980057</v>
+        <v>1.384224796803972</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6507319944187034</v>
       </c>
       <c r="E22" t="n">
-        <v>6.566873210000164</v>
+        <v>6.368819106024262</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.318701619619975</v>
+        <v>-2.203735263000172</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497524267174317</v>
+        <v>1.483101529965838</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7170513395797271</v>
       </c>
       <c r="E23" t="n">
-        <v>6.689519205912792</v>
+        <v>6.495735415812979</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.407964243988937</v>
+        <v>-2.295053556341553</v>
       </c>
       <c r="G23" t="n">
-        <v>1.598395282562871</v>
+        <v>1.586355610304042</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.778416390534978</v>
       </c>
       <c r="E24" t="n">
-        <v>6.82282603333399</v>
+        <v>6.641629674147219</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.461768939612358</v>
+        <v>-2.357216293499081</v>
       </c>
       <c r="G24" t="n">
-        <v>1.601022320476322</v>
+        <v>1.589621699980741</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8321318278253678</v>
       </c>
       <c r="E25" t="n">
-        <v>6.900173332954705</v>
+        <v>6.718525230280121</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.469831852561221</v>
+        <v>-2.360771215684539</v>
       </c>
       <c r="G25" t="n">
-        <v>1.645724463521262</v>
+        <v>1.636388956112827</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8760466800603129</v>
       </c>
       <c r="E26" t="n">
-        <v>6.892531470120791</v>
+        <v>6.733253327198131</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.493352420290817</v>
+        <v>-2.370736330741493</v>
       </c>
       <c r="G26" t="n">
-        <v>1.670225645163428</v>
+        <v>1.679542264342407</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9085883424136912</v>
       </c>
       <c r="E27" t="n">
-        <v>6.824505511736418</v>
+        <v>6.680863674764759</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.39665334258327</v>
+        <v>-2.292492627231197</v>
       </c>
       <c r="G27" t="n">
-        <v>1.629973254174405</v>
+        <v>1.633913024035021</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9287605255647529</v>
       </c>
       <c r="E28" t="n">
-        <v>6.697309026544109</v>
+        <v>6.576833602999755</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.32702109768561</v>
+        <v>-2.245362559691651</v>
       </c>
       <c r="G28" t="n">
-        <v>1.574432415460189</v>
+        <v>1.594962346859314</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9367853721589828</v>
       </c>
       <c r="E29" t="n">
-        <v>6.538715581939216</v>
+        <v>6.439160446536069</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.243550863683034</v>
+        <v>-2.160592185894881</v>
       </c>
       <c r="G29" t="n">
-        <v>1.523135132297</v>
+        <v>1.551091285910422</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9335954893366076</v>
       </c>
       <c r="E30" t="n">
-        <v>6.354613583454523</v>
+        <v>6.279183439123551</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.196119371481759</v>
+        <v>-2.124004111420247</v>
       </c>
       <c r="G30" t="n">
-        <v>1.454591321621719</v>
+        <v>1.480652356213094</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9207409513375888</v>
       </c>
       <c r="E31" t="n">
-        <v>6.072168444290085</v>
+        <v>6.018949283779787</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.00721740168666</v>
+        <v>-1.968178579440161</v>
       </c>
       <c r="G31" t="n">
-        <v>1.374601243896339</v>
+        <v>1.402135560385252</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9001875536107894</v>
       </c>
       <c r="E32" t="n">
-        <v>5.811054412257514</v>
+        <v>5.780900927950757</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.881186477653675</v>
+        <v>-1.854901932347075</v>
       </c>
       <c r="G32" t="n">
-        <v>1.290480939996667</v>
+        <v>1.330930083375852</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8740495167567077</v>
       </c>
       <c r="E33" t="n">
-        <v>5.452171756524472</v>
+        <v>5.445812719274417</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.812570262098814</v>
+        <v>-1.797207835474919</v>
       </c>
       <c r="G33" t="n">
-        <v>1.211529714891346</v>
+        <v>1.256659991137279</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8440680948691468</v>
       </c>
       <c r="E34" t="n">
-        <v>5.144803598593359</v>
+        <v>5.162505017631506</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.731218657833509</v>
+        <v>-1.716238717856091</v>
       </c>
       <c r="G34" t="n">
-        <v>1.094293622698628</v>
+        <v>1.145564147536755</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8121937696138575</v>
       </c>
       <c r="E35" t="n">
-        <v>4.738059743438927</v>
+        <v>4.776462661960421</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.680689496001515</v>
+        <v>-1.67136579373649</v>
       </c>
       <c r="G35" t="n">
-        <v>1.021696712785997</v>
+        <v>1.071215354342117</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7807461418794613</v>
       </c>
       <c r="E36" t="n">
-        <v>4.272293319273961</v>
+        <v>4.32420604391358</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.598927859755111</v>
+        <v>-1.602545742705421</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9545097065932775</v>
+        <v>1.010418865781878</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7516483430066389</v>
       </c>
       <c r="E37" t="n">
-        <v>3.89936096886419</v>
+        <v>3.970865509506638</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.564415916501472</v>
+        <v>-1.568381657677589</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8760086509566483</v>
+        <v>0.9291176301284547</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7258947766926942</v>
       </c>
       <c r="E38" t="n">
-        <v>3.552963432801305</v>
+        <v>3.642111153774412</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.472811938689575</v>
+        <v>-1.479345692062094</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7810512254068204</v>
+        <v>0.8394662230365315</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7034760554870576</v>
       </c>
       <c r="E39" t="n">
-        <v>3.122930390728108</v>
+        <v>3.228238566019609</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.44727111741779</v>
+        <v>-1.456521627793674</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7179645390250888</v>
+        <v>0.7709271344186144</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6831068828685475</v>
       </c>
       <c r="E40" t="n">
-        <v>2.710930885727653</v>
+        <v>2.832649784377835</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.442734794310201</v>
+        <v>-1.453198873428608</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6466473066580759</v>
+        <v>0.7014625225573724</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6629295833903339</v>
       </c>
       <c r="E41" t="n">
-        <v>2.36187325734977</v>
+        <v>2.483077451747286</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.408876068991902</v>
+        <v>-1.425078234817011</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5942812645115234</v>
+        <v>0.6506579073791501</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6404953354691844</v>
       </c>
       <c r="E42" t="n">
-        <v>1.987554196094132</v>
+        <v>2.113696088475169</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.377902520722947</v>
+        <v>-1.39486021572628</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5296425952761893</v>
+        <v>0.5843240195501752</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6132268576803483</v>
       </c>
       <c r="E43" t="n">
-        <v>1.748896694865158</v>
+        <v>1.868682698034383</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.355887502282875</v>
+        <v>-1.366549120801005</v>
       </c>
       <c r="G43" t="n">
-        <v>0.454328928360194</v>
+        <v>0.5098052322904367</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5802876853259445</v>
       </c>
       <c r="E44" t="n">
-        <v>1.535609233833308</v>
+        <v>1.64169340055161</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.355508163674642</v>
+        <v>-1.365698363465942</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3872347892956309</v>
+        <v>0.4362938172683307</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5416890730562297</v>
       </c>
       <c r="E45" t="n">
-        <v>1.314426492889014</v>
+        <v>1.422401056571999</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.284719014722825</v>
+        <v>-1.29469672193275</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3289567313294729</v>
+        <v>0.3831549317332195</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4982247710605865</v>
       </c>
       <c r="E46" t="n">
-        <v>1.09118650895318</v>
+        <v>1.199044595221188</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.224015393290743</v>
+        <v>-1.231801278874257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2927779018263766</v>
+        <v>0.3397891309222643</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4525436309051653</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9649706376734418</v>
+        <v>1.070000211580473</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.172107390708489</v>
+        <v>-1.184418581265742</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2168897179311065</v>
+        <v>0.2670238009636547</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4070862426987084</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8004399929430023</v>
+        <v>0.8877099091043976</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.098634539154854</v>
+        <v>-1.108666550024464</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1592774700532588</v>
+        <v>0.1987522955963587</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3640645537744798</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6360100854363259</v>
+        <v>0.7261478644367311</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.039844137964713</v>
+        <v>-1.043523407660754</v>
       </c>
       <c r="G49" t="n">
-        <v>0.112547990380084</v>
+        <v>0.153803031549375</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3251079056400716</v>
       </c>
       <c r="E50" t="n">
-        <v>0.557625507214673</v>
+        <v>0.6439840663048352</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9839908564549189</v>
+        <v>-0.9817596843504751</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09828108106461451</v>
+        <v>0.1300526570280689</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2903443588456002</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4386280876252197</v>
+        <v>0.5222667416737743</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9654308099861019</v>
+        <v>-0.9613194720412644</v>
       </c>
       <c r="G51" t="n">
-        <v>0.08986322680389844</v>
+        <v>0.1131964862580598</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2598111010372504</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3012776050814003</v>
+        <v>0.3633427530534077</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9679878040486548</v>
+        <v>-0.9528795815128501</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03215024170228743</v>
+        <v>0.06026851928520291</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2330737966759175</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2353749984916618</v>
+        <v>0.3049513657105161</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9337544621794861</v>
+        <v>-0.9366475093244369</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03992747018063413</v>
+        <v>0.06067461621849849</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2094398498503406</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1348140648700035</v>
+        <v>0.1789778933754582</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9034294097885071</v>
+        <v>-0.8956781526256619</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001326225249856055</v>
+        <v>0.01941957504920746</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1886005329813629</v>
       </c>
       <c r="E55" t="n">
-        <v>0.08703786248116371</v>
+        <v>0.1112147961843423</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9176207661861541</v>
+        <v>-0.9016476201431947</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0113965713076174</v>
+        <v>0.007039914660177552</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1695212258609561</v>
       </c>
       <c r="E56" t="n">
-        <v>0.009929813766885615</v>
+        <v>0.02863230896618039</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9296879837796058</v>
+        <v>-0.9071299287426851</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04438329003271592</v>
+        <v>-0.02938603584496297</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1507880614460535</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0853109352247764</v>
+        <v>-0.0729297008166252</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9613344252229168</v>
+        <v>-0.9311809409161595</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08227465233978738</v>
+        <v>-0.06967305525465407</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1316668016273378</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1229945270078362</v>
+        <v>-0.116156987944906</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9617247819649993</v>
+        <v>-0.9267201707263933</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1076919131105509</v>
+        <v>-0.09704209973583043</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1111584101327577</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1954025546259104</v>
+        <v>-0.1943086113366064</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9686764374142238</v>
+        <v>-0.9374227137416774</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1200196308685779</v>
+        <v>-0.1140556724179696</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.088681623146515</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2718699775578191</v>
+        <v>-0.2783974348538531</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.008455835657295</v>
+        <v>-0.9656086741468088</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1280675906357883</v>
+        <v>-0.1247826127296337</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06434038558660701</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3464249672573475</v>
+        <v>-0.3615481429748045</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9895424218957464</v>
+        <v>-0.9474177351619367</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1657952549542445</v>
+        <v>-0.1620900139427026</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.03832850424713759</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4723575150952516</v>
+        <v>-0.4831458421526466</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.028293198643048</v>
+        <v>-0.9751063055247372</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1871688606023865</v>
+        <v>-0.1821508876436799</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.01101874315638055</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5258332407223212</v>
+        <v>-0.5293385813054579</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.058955091125986</v>
+        <v>-0.9936372326398102</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2218995925138862</v>
+        <v>-0.215449262154796</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.01721495697575461</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6678821703432231</v>
+        <v>-0.6737564097039173</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.100754742911247</v>
+        <v>-1.031229531313834</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2718164609076949</v>
+        <v>-0.2624715093845327</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.04589368099716079</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8330534408560321</v>
+        <v>-0.8385963491916925</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.168498951872907</v>
+        <v>-1.092307769296786</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3354430358480326</v>
+        <v>-0.3223283085293553</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.07435913219123982</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9443405277797939</v>
+        <v>-0.9460034789814481</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.196788797540044</v>
+        <v>-1.118667867521209</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3685855824661399</v>
+        <v>-0.3581215033477329</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1022973388663656</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.036127878819322</v>
+        <v>-1.027858769365569</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.258983802089559</v>
+        <v>-1.173496462583036</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4304524040288634</v>
+        <v>-0.4089575989083812</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1298706488019604</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.142494581969898</v>
+        <v>-1.118445930825106</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.325715916756223</v>
+        <v>-1.228890917518972</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4494807211862674</v>
+        <v>-0.43977846732257</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1561620246738112</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.310034751260265</v>
+        <v>-1.26679093693121</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.383347052863526</v>
+        <v>-1.283650255739462</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4839989605163915</v>
+        <v>-0.4711486684100927</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1795365445524836</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.369364253999451</v>
+        <v>-1.320187961602215</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.473461221577112</v>
+        <v>-1.363754449851136</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.524104967727133</v>
+        <v>-0.5052135902332822</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1978305110335851</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.430917845757036</v>
+        <v>-1.375613109911015</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.513842682134081</v>
+        <v>-1.39160435717387</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.583026799513903</v>
+        <v>-0.5571845535803883</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2088280850979485</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.507574937993062</v>
+        <v>-1.449747836505156</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.55983866889673</v>
+        <v>-1.44051936239697</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5760428766726918</v>
+        <v>-0.5413703834686803</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2114794522193849</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.564482025304567</v>
+        <v>-1.48173662710735</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.564245922436372</v>
+        <v>-1.447148343926328</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6069267058517326</v>
+        <v>-0.5672992004538665</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.205287330199646</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.616246005137222</v>
+        <v>-1.526057070515374</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.59680923001784</v>
+        <v>-1.482282024732881</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6120454160342025</v>
+        <v>-0.574185534109557</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1909471200587583</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.61742966751644</v>
+        <v>-1.516584623443387</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.584208419942267</v>
+        <v>-1.474502435225852</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6325359969552948</v>
+        <v>-0.5942904803459307</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1694351812429657</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.531229297347968</v>
+        <v>-1.434013941368635</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.653975243474799</v>
+        <v>-1.534048365594218</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6155035360437001</v>
+        <v>-0.5763513844204667</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1427797954487839</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.473602883298029</v>
+        <v>-1.390596197926677</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.662432448213548</v>
+        <v>-1.544549434161975</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.589758879295706</v>
+        <v>-0.5515542871834958</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1125131425694483</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.300902292318478</v>
+        <v>-1.218911636289925</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.605208196049101</v>
+        <v>-1.494224107806189</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5498323102647927</v>
+        <v>-0.5126917550785818</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.07926706416236839</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.177775433564292</v>
+        <v>-1.10063826549627</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.576051065846127</v>
+        <v>-1.475904886262931</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5582013699327485</v>
+        <v>-0.5118653950398989</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.04325992416527224</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9945005821278435</v>
+        <v>-0.9242678489354069</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.537598565722312</v>
+        <v>-1.444513435917271</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5455320900253993</v>
+        <v>-0.4995408253201145</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.00404023204802987</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.8486905338165938</v>
+        <v>-0.7793368903034035</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.498806864477856</v>
+        <v>-1.416293634101031</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5114766123169376</v>
+        <v>-0.4700138006236349</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.03811998680038992</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6329342237929839</v>
+        <v>-0.5811049221667949</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.488299499833613</v>
+        <v>-1.413057450787637</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4613755836859367</v>
+        <v>-0.426518930244733</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.08232993058417158</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4232481185106702</v>
+        <v>-0.3773890714115746</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.386930307393167</v>
+        <v>-1.334452509889002</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3763187384090901</v>
+        <v>-0.3436783038906778</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1274877560955645</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2285356571292899</v>
+        <v>-0.1924890452323828</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.352437252368984</v>
+        <v>-1.318329832029519</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3535788841636591</v>
+        <v>-0.3223534928352961</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1715006016297905</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.03415531378250405</v>
+        <v>-0.002265686384952114</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.225881392959045</v>
+        <v>-1.200310665323954</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3281679194693808</v>
+        <v>-0.2904638654377442</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2115295288616294</v>
       </c>
       <c r="E86" t="n">
-        <v>0.232842401725489</v>
+        <v>0.255053385546163</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.116477619913919</v>
+        <v>-1.101711746536997</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2636677639167213</v>
+        <v>-0.223437409195397</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2447687462225175</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4691278561386631</v>
+        <v>0.4841140921925669</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9817470921975048</v>
+        <v>-0.9790287611750185</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1984923541610236</v>
+        <v>-0.1634137640237165</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2686003420719724</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6406518678250416</v>
+        <v>0.6574592440022904</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8309230059753515</v>
+        <v>-0.8315014580024296</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.174948176144608</v>
+        <v>-0.1386355550162011</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.281684215908205</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8269968435575874</v>
+        <v>0.8350747096881026</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7155245811067523</v>
+        <v>-0.7130234647230055</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1156391356539981</v>
+        <v>-0.0864694132980537</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2834573024833583</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9664486416283432</v>
+        <v>0.9688002261955664</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5263400748793801</v>
+        <v>-0.5401174642481249</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09783068331560207</v>
+        <v>-0.06840439584288571</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2737214354326319</v>
       </c>
       <c r="E91" t="n">
-        <v>1.088394199031993</v>
+        <v>1.085918266954187</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3281694934885021</v>
+        <v>-0.3426677836148028</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1180111824697982</v>
+        <v>-0.08735873410158859</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2534580751776144</v>
       </c>
       <c r="E92" t="n">
-        <v>1.151661897612674</v>
+        <v>1.144671678694978</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1907686423328012</v>
+        <v>-0.2043964998850225</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.07964446638809393</v>
+        <v>-0.04910849543486058</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2239716170697054</v>
       </c>
       <c r="E93" t="n">
-        <v>1.183298107931696</v>
+        <v>1.181876768665162</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09009123129616659</v>
+        <v>-0.104938953667396</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07657040704419368</v>
+        <v>-0.04915571600849961</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1879317622023941</v>
       </c>
       <c r="E94" t="n">
-        <v>1.171300934189142</v>
+        <v>1.160018365127659</v>
       </c>
       <c r="F94" t="n">
-        <v>0.06370932508436622</v>
+        <v>0.04105446787148542</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03897496033192675</v>
+        <v>-0.0159769669506024</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1480135138846529</v>
       </c>
       <c r="E95" t="n">
-        <v>1.18569848709168</v>
+        <v>1.168462977713437</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1454607302064813</v>
+        <v>0.1178618789335951</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07274554057943301</v>
+        <v>-0.0505251126440312</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1076744873433349</v>
       </c>
       <c r="E96" t="n">
-        <v>1.105815442666549</v>
+        <v>1.088967141992146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2277268395812618</v>
+        <v>0.1937846912495338</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09846816105972885</v>
+        <v>-0.08269806348341727</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07255046467481603</v>
       </c>
       <c r="E97" t="n">
-        <v>1.057012979810621</v>
+        <v>1.036832480656425</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2764805078444293</v>
+        <v>0.2396122579662033</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06392158938542136</v>
+        <v>-0.04657432464956648</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04643435509432423</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9373749344387982</v>
+        <v>0.924046140519624</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2565329635201857</v>
+        <v>0.2214103008474821</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1207704379894383</v>
+        <v>-0.1056519843293452</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0314286122414963</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9063179631564143</v>
+        <v>0.8875792655173296</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2343361458716034</v>
+        <v>0.2074471772224237</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1068199065173503</v>
+        <v>-0.09297326030726816</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02272082139891404</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8483767452822147</v>
+        <v>0.835145540548561</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2271176941813184</v>
+        <v>0.197534004796472</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1079705144950211</v>
+        <v>-0.09504466947089986</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01626747622195082</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7916459481122953</v>
+        <v>0.7783565046711536</v>
       </c>
       <c r="F101" t="n">
-        <v>0.201517847192484</v>
+        <v>0.1800639665691557</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09367842087361086</v>
+        <v>-0.0823376131046394</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.002667335855466205</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7802878261329895</v>
+        <v>0.7665922857585522</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1698769148160976</v>
+        <v>0.154912715029892</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0766081835031049</v>
+        <v>-0.0672364736548806</v>
       </c>
     </row>
   </sheetData>
